--- a/outputs/fiftieth_estimates_nocats.xlsx
+++ b/outputs/fiftieth_estimates_nocats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\UF1\Pollard-Incidental_Comparisons\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1550AD0C-C44B-49A0-A547-ED85A0D95461}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93622D39-220F-491F-AD49-8BC34B46C3D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48BE44FE-AAB9-49F3-BC5C-68CCA02BB777}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{48BE44FE-AAB9-49F3-BC5C-68CCA02BB777}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -62,12 +62,15 @@
   <si>
     <t>Colias eurytheme</t>
   </si>
+  <si>
+    <t>Epargyreus clarus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +78,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,12 +120,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2ECE64-B188-4B10-8057-A074B173785C}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -443,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -466,7 +514,7 @@
         <v>223.42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -489,7 +537,7 @@
         <v>229.46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -512,7 +560,7 @@
         <v>191.28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -535,7 +583,7 @@
         <v>230.72</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -558,7 +606,7 @@
         <v>242.26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -581,7 +629,7 @@
         <v>225.76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -604,7 +652,7 @@
         <v>246.63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -627,7 +675,7 @@
         <v>226.78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -650,7 +698,7 @@
         <v>261.47000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -673,7 +721,7 @@
         <v>261.45999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -696,7 +744,7 @@
         <v>255.09</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -719,7 +767,7 @@
         <v>277.89999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -741,8 +789,15 @@
       <c r="G14">
         <v>280.19</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -764,8 +819,16 @@
       <c r="G15">
         <v>271.16000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -787,8 +850,613 @@
       <c r="G16">
         <v>233.09</v>
       </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-93.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>236.50819999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>225.20679999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>259.35700000000003</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-93.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>209.7816</v>
+      </c>
+      <c r="F18" s="1">
+        <v>180.22040000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>237.00559999999999</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-90.5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>246.30350000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>236.71530000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>254.01669999999999</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-88.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>222.69460000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>202.88650000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>238.43350000000001</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C21" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-88.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>206.92779999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>194.3862</v>
+      </c>
+      <c r="G21" s="1">
+        <v>214.81780000000001</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-87.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>228.3091</v>
+      </c>
+      <c r="F22" s="1">
+        <v>203.79830000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>238.40010000000001</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-87.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>213.04470000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>190.6395</v>
+      </c>
+      <c r="G23" s="1">
+        <v>229.28739999999999</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-87.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>240.83779999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>229.1508</v>
+      </c>
+      <c r="G24" s="1">
+        <v>251.33420000000001</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-87.5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>215.84819999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>203.1498</v>
+      </c>
+      <c r="G25" s="1">
+        <v>227.6404</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-87.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>214.23339999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>206.7174</v>
+      </c>
+      <c r="G26" s="1">
+        <v>223.43270000000001</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C27" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-84.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>242.4931</v>
+      </c>
+      <c r="F27" s="1">
+        <v>233.1277</v>
+      </c>
+      <c r="G27" s="1">
+        <v>249.55199999999999</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-84.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>193.72900000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>183.73849999999999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>203.26519999999999</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-83.5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>200.93360000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>189.6584</v>
+      </c>
+      <c r="G29" s="1">
+        <v>211.92769999999999</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-81.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>217.5711</v>
+      </c>
+      <c r="F30" s="1">
+        <v>208.39400000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>225.5402</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C31" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-81.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>202.37100000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>181.11949999999999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>221.84690000000001</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C32" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-81.5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>197.9479</v>
+      </c>
+      <c r="F32" s="1">
+        <v>186.97380000000001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>206.1551</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-81.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>209.6377</v>
+      </c>
+      <c r="F33" s="1">
+        <v>202.74299999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>220.642</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C34" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-77.5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>199.1301</v>
+      </c>
+      <c r="F34" s="1">
+        <v>178.8707</v>
+      </c>
+      <c r="G34" s="1">
+        <v>238.01419999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C35" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-77.5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>211.56610000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>168.84549999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>229.3741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C36" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-77.5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>188.36770000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>174.17359999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>200.0823</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/outputs/fiftieth_estimates_nocats.xlsx
+++ b/outputs/fiftieth_estimates_nocats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\UF1\Pollard-Incidental_Comparisons\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93622D39-220F-491F-AD49-8BC34B46C3D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C02047B-32F1-4B44-A72E-D712D5BDD01B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{48BE44FE-AAB9-49F3-BC5C-68CCA02BB777}"/>
+    <workbookView xWindow="11568" yWindow="0" windowWidth="11508" windowHeight="12384" xr2:uid="{48BE44FE-AAB9-49F3-BC5C-68CCA02BB777}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Epargyreus clarus</t>
+  </si>
+  <si>
+    <t>Ancyloxypha numitor</t>
+  </si>
+  <si>
+    <t>Megisto cymela</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,11 +137,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -144,6 +159,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2ECE64-B188-4B10-8057-A074B173785C}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,6 +1479,328 @@
         <v>200.0823</v>
       </c>
     </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C37" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-87.5</v>
+      </c>
+      <c r="E37" s="5">
+        <v>234.06</v>
+      </c>
+      <c r="F37" s="5">
+        <v>194.9</v>
+      </c>
+      <c r="G37" s="5">
+        <v>247.77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C38" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-87.5</v>
+      </c>
+      <c r="E38" s="5">
+        <v>203.3</v>
+      </c>
+      <c r="F38" s="5">
+        <v>188.53</v>
+      </c>
+      <c r="G38" s="5">
+        <v>230.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C39" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-87.5</v>
+      </c>
+      <c r="E39">
+        <v>210.56</v>
+      </c>
+      <c r="F39">
+        <v>198.01</v>
+      </c>
+      <c r="G39" s="5">
+        <v>224.79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C40" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="D40" s="5">
+        <v>-84.5</v>
+      </c>
+      <c r="E40" s="6">
+        <v>205.23</v>
+      </c>
+      <c r="F40" s="6">
+        <v>177.77</v>
+      </c>
+      <c r="G40" s="5">
+        <v>226.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C41" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-84.5</v>
+      </c>
+      <c r="E41" s="6">
+        <v>205.16</v>
+      </c>
+      <c r="F41" s="6">
+        <v>192.6</v>
+      </c>
+      <c r="G41" s="5">
+        <v>217.82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C42" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-81.400000000000006</v>
+      </c>
+      <c r="E42" s="6">
+        <v>200.93</v>
+      </c>
+      <c r="F42" s="6">
+        <v>186.91</v>
+      </c>
+      <c r="G42" s="5">
+        <v>223.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C43" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="D43" s="5">
+        <v>-77.5</v>
+      </c>
+      <c r="E43" s="6">
+        <v>206.84</v>
+      </c>
+      <c r="F43" s="6">
+        <v>174.33</v>
+      </c>
+      <c r="G43" s="5">
+        <v>230.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C44" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D44" s="5">
+        <v>-87.5</v>
+      </c>
+      <c r="E44" s="6">
+        <v>165.9</v>
+      </c>
+      <c r="F44" s="6">
+        <v>160.44</v>
+      </c>
+      <c r="G44" s="5">
+        <v>179.82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C45" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-84.5</v>
+      </c>
+      <c r="E45" s="6">
+        <v>176.88</v>
+      </c>
+      <c r="F45" s="6">
+        <v>169.11</v>
+      </c>
+      <c r="G45" s="5">
+        <v>189.87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C46" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="D46" s="5">
+        <v>-84.5</v>
+      </c>
+      <c r="E46" s="6">
+        <v>172.99</v>
+      </c>
+      <c r="F46" s="6">
+        <v>166.65</v>
+      </c>
+      <c r="G46" s="5">
+        <v>183.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C47" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D47" s="5">
+        <v>-83.5</v>
+      </c>
+      <c r="E47" s="6">
+        <v>166.22</v>
+      </c>
+      <c r="F47" s="6">
+        <v>156.24</v>
+      </c>
+      <c r="G47" s="5">
+        <v>170.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C48" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D48" s="5">
+        <v>-81.5</v>
+      </c>
+      <c r="E48" s="6">
+        <v>156.38999999999999</v>
+      </c>
+      <c r="F48" s="6">
+        <v>150.55000000000001</v>
+      </c>
+      <c r="G48" s="5">
+        <v>170.13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C49" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-81.5</v>
+      </c>
+      <c r="E49" s="6">
+        <v>162.81</v>
+      </c>
+      <c r="F49" s="6">
+        <v>156.52000000000001</v>
+      </c>
+      <c r="G49">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C50" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="D50" s="5">
+        <v>-81.5</v>
+      </c>
+      <c r="E50" s="6">
+        <v>159.11000000000001</v>
+      </c>
+      <c r="F50" s="6">
+        <v>154.29</v>
+      </c>
+      <c r="G50" s="6">
+        <v>164.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
